--- a/020_Entidades/Tabelas.xlsx
+++ b/020_Entidades/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/020_Entidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{954B0853-6A7F-4D8F-B7C1-7F22D8873F6E}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C29CE61-AD35-4994-989C-CF2DAC3C9578}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
+    <workbookView xWindow="7845" yWindow="4215" windowWidth="24585" windowHeight="12420" activeTab="5" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Produto" sheetId="3" r:id="rId3"/>
     <sheet name="Receita" sheetId="4" r:id="rId4"/>
     <sheet name="Filial" sheetId="5" r:id="rId5"/>
+    <sheet name="PlanoPagamento" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
   <si>
     <t>CODCLASSIFICA</t>
   </si>
@@ -473,6 +474,24 @@
   </si>
   <si>
     <t>PADOCA DO MORRUGA</t>
+  </si>
+  <si>
+    <t>CODPLPAG</t>
+  </si>
+  <si>
+    <t>PLANO</t>
+  </si>
+  <si>
+    <t>PIX</t>
+  </si>
+  <si>
+    <t>CARTAO DEBITO</t>
+  </si>
+  <si>
+    <t>CARTAO CREDITO</t>
+  </si>
+  <si>
+    <t>PARCELAMENTO</t>
   </si>
 </sst>
 </file>
@@ -509,7 +528,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +541,20 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -540,31 +571,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -588,30 +702,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -677,15 +767,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -703,12 +784,11 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -745,6 +825,40 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -759,26 +873,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D42" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D42" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:D42" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{4DA7A0CE-FE4D-48E1-AE9C-83FC7CEE697E}" name="CODGERENCIAL" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{B3C287AE-293F-40D3-9297-88C9DC606D89}" name="CODDRE" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{4DA7A0CE-FE4D-48E1-AE9C-83FC7CEE697E}" name="CODGERENCIAL" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{B3C287AE-293F-40D3-9297-88C9DC606D89}" name="CODDRE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:D24" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:D24" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:D24" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{75D51829-A360-4D34-8ED9-0BF5D8712134}" name="CODDRE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9DD87E37-9532-4341-BDDB-32E8D95048A3}" name="SUBCONTADRE" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E7ADFED8-1FA7-4CA0-B228-A102DA4B27E4}" name="SUBTOTAL" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C15969C2-45ED-41FB-8B35-8CD315DEB10D}" name="CONTADRE" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{75D51829-A360-4D34-8ED9-0BF5D8712134}" name="CODDRE" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{9DD87E37-9532-4341-BDDB-32E8D95048A3}" name="SUBCONTADRE" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E7ADFED8-1FA7-4CA0-B228-A102DA4B27E4}" name="SUBTOTAL" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C15969C2-45ED-41FB-8B35-8CD315DEB10D}" name="CONTADRE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,6 +927,18 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1DAFC0D6-B431-4BF4-A68A-00EDD522E2E0}" name="CODFILIAL"/>
     <tableColumn id="2" xr3:uid="{8D34B6B3-5A84-4F7D-94AA-578C4F745A69}" name="EMPRESA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}" name="PlanoPagamento" displayName="PlanoPagamento" ref="A1:C4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:C4" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2803E7C8-A106-4007-B75E-C6F4F31A5A9B}" name="CODPLPAG"/>
+    <tableColumn id="2" xr3:uid="{340F008D-47AA-43FB-A9CD-B6A8FF27785D}" name="PLANO"/>
+    <tableColumn id="3" xr3:uid="{80F49A70-0D76-4941-BEFA-E9CBF1942BD9}" name="PARCELAMENTO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,13 +1293,13 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>3101</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1181,13 +1307,13 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3108</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4</v>
       </c>
     </row>
@@ -1195,13 +1321,13 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3110</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1209,13 +1335,13 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3301</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1223,13 +1349,13 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3203</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1237,13 +1363,13 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3207</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1251,13 +1377,13 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3114</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1265,13 +1391,13 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3302</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>12</v>
       </c>
     </row>
@@ -1279,13 +1405,13 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2309</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>12</v>
       </c>
     </row>
@@ -1293,13 +1419,13 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3403</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1307,13 +1433,13 @@
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3404</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1321,13 +1447,13 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3405</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1335,13 +1461,13 @@
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>3407</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1349,13 +1475,13 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3450</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1363,13 +1489,13 @@
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3451</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1377,13 +1503,13 @@
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3452</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1391,13 +1517,13 @@
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>3453</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1405,13 +1531,13 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>3454</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1419,13 +1545,13 @@
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>3455</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1433,13 +1559,13 @@
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>3456</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1447,13 +1573,13 @@
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>3457</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1461,13 +1587,13 @@
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>3500</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1475,13 +1601,13 @@
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>3552</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1489,13 +1615,13 @@
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>3553</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1503,13 +1629,13 @@
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>3554</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1517,13 +1643,13 @@
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>3601</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1531,13 +1657,13 @@
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>3602</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1545,13 +1671,13 @@
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>3650</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1559,13 +1685,13 @@
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>3651</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1573,13 +1699,13 @@
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>3654</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1587,13 +1713,13 @@
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>3750</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1601,13 +1727,13 @@
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>3751</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1615,13 +1741,13 @@
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>3752</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1629,13 +1755,13 @@
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>3850</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1643,13 +1769,13 @@
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3851</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1657,13 +1783,13 @@
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>3853</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1671,13 +1797,13 @@
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>3854</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1685,13 +1811,13 @@
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>4001</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>27</v>
       </c>
     </row>
@@ -1699,13 +1825,13 @@
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>4101</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>31</v>
       </c>
     </row>
@@ -1713,13 +1839,13 @@
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>4102</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>31</v>
       </c>
     </row>
@@ -1727,22 +1853,22 @@
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>4118</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D42">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND($A2&lt;&gt;"",#REF!=4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND($A2&lt;&gt;"",#REF!&lt;5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1771,344 +1897,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>31</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>41</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:C3 A2:C2 D2:D3 A3:A24 B4:D24">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A2:C2 D2:D3 B3:C3 A3:A24 B4:D24">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2290,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE20EC1-049C-40F9-9529-CAD2EDD25138}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2322,4 +2448,71 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B4E0D-EEAC-490D-A3D1-6A11766F3101}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/020_Entidades/Tabelas.xlsx
+++ b/020_Entidades/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/020_Entidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C29CE61-AD35-4994-989C-CF2DAC3C9578}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F408E9-244D-4866-8E86-65BF2D61CE43}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="4215" windowWidth="24585" windowHeight="12420" activeTab="5" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
   <si>
     <t>CODCLASSIFICA</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Açúcar</t>
   </si>
   <si>
-    <t>GRAMAS</t>
-  </si>
-  <si>
     <t>CODPRODACABADO</t>
   </si>
   <si>
@@ -492,6 +489,18 @@
   </si>
   <si>
     <t>PARCELAMENTO</t>
+  </si>
+  <si>
+    <t>MEDIDA</t>
+  </si>
+  <si>
+    <t>QTD</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
@@ -632,6 +641,57 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -651,57 +711,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -910,12 +919,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBAD06E7-4624-4E25-AE35-3D82A7783E66}" name="Receita" displayName="Receita" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{BBAD06E7-4624-4E25-AE35-3D82A7783E66}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBAD06E7-4624-4E25-AE35-3D82A7783E66}" name="Receita" displayName="Receita" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{BBAD06E7-4624-4E25-AE35-3D82A7783E66}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{84145222-0D83-43B8-AEFA-6A0E992193E9}" name="CODPRODACABADO"/>
     <tableColumn id="2" xr3:uid="{008F1332-BD8C-4D9C-AFB6-9DF707A7337F}" name="CODPROD"/>
-    <tableColumn id="3" xr3:uid="{261148EC-4ECA-42B5-B4D9-B4374EAD21D6}" name="GRAMAS"/>
+    <tableColumn id="3" xr3:uid="{261148EC-4ECA-42B5-B4D9-B4374EAD21D6}" name="QTD"/>
+    <tableColumn id="4" xr3:uid="{25DB07B6-9C48-4487-8C69-DF0785909FBE}" name="MEDIDA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,7 +943,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}" name="PlanoPagamento" displayName="PlanoPagamento" ref="A1:C4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}" name="PlanoPagamento" displayName="PlanoPagamento" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C4" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2803E7C8-A106-4007-B75E-C6F4F31A5A9B}" name="CODPLPAG"/>
@@ -1264,7 +1274,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,10 +1875,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D42">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND($A2&lt;&gt;"",#REF!=4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND($A2&lt;&gt;"",#REF!&lt;5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2234,7 +2244,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 D2:D3 B3:C3 A3:A24 B4:D24">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C2=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2250,7 +2260,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE9F3EB-8A06-4CA3-98C2-27E2556CFA4C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,20 +2346,24 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2357,10 +2371,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2368,10 +2385,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2379,10 +2399,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2390,10 +2413,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2401,7 +2427,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2428,10 +2457,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B4E0D-EEAC-490D-A3D1-6A11766F3101}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2467,13 +2496,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2492,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2503,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>30</v>

--- a/020_Entidades/Tabelas.xlsx
+++ b/020_Entidades/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/020_Entidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F408E9-244D-4866-8E86-65BF2D61CE43}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B98D007-D234-4960-9D79-6CCDA09FBA2B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
+    <workbookView xWindow="40170" yWindow="4545" windowWidth="23055" windowHeight="9990" activeTab="1" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>CODCLASSIFICA</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Salários Funcionários</t>
   </si>
   <si>
-    <t>3.4.1.01.009</t>
-  </si>
-  <si>
-    <t>Prêmios e Gratificações Funcionários</t>
-  </si>
-  <si>
     <t>3.4.1.03.001</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
     <t>Assistência Médica e Social</t>
   </si>
   <si>
-    <t>3.4.1.03.005</t>
-  </si>
-  <si>
-    <t>Cursos e Treinamentos</t>
-  </si>
-  <si>
     <t>3.4.2.01.001</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
     <t>3.4.2.03.003</t>
   </si>
   <si>
-    <t>Sacos, Fitilhos, Sacolas e Papel Presente</t>
-  </si>
-  <si>
     <t>3.4.2.03.004</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t>Tarifas Bancárias</t>
   </si>
   <si>
-    <t>3.5.2.06.001</t>
-  </si>
-  <si>
     <t>SUBCONTADRE</t>
   </si>
   <si>
@@ -371,9 +353,6 @@
     <t>Investimento em Marketing</t>
   </si>
   <si>
-    <t>Despesas com Clientes e Mercadorias</t>
-  </si>
-  <si>
     <t>MARGEM DE CONTRIBUIÇÃO</t>
   </si>
   <si>
@@ -428,15 +407,9 @@
     <t>Despesas Financeiras</t>
   </si>
   <si>
-    <t>Despesa com Antecipação de Recebíveis</t>
-  </si>
-  <si>
     <t>LUCRO LÍQUIDO</t>
   </si>
   <si>
-    <t>Taxa de Antecipação Cartão Crédito</t>
-  </si>
-  <si>
     <t>CODPROD</t>
   </si>
   <si>
@@ -501,6 +474,12 @@
   </si>
   <si>
     <t>ML</t>
+  </si>
+  <si>
+    <t>Sacos e Sacolas</t>
+  </si>
+  <si>
+    <t>Despesas com Mercadorias</t>
   </si>
 </sst>
 </file>
@@ -882,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D42" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:D42" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D39" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D39" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="15"/>
@@ -895,8 +874,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:D24" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:D24" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:D23" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:D23" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{75D51829-A360-4D34-8ED9-0BF5D8712134}" name="CODDRE" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{9DD87E37-9532-4341-BDDB-32E8D95048A3}" name="SUBCONTADRE" dataDxfId="9"/>
@@ -1271,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8319F-13B3-4AAB-A308-4992C26F067B}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,10 +1398,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="4">
-        <v>2309</v>
+        <v>3403</v>
       </c>
       <c r="D10" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="4">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="D11" s="4">
         <v>14</v>
@@ -1447,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="4">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D12" s="4">
         <v>14</v>
@@ -1461,10 +1440,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="4">
-        <v>3405</v>
+        <v>3450</v>
       </c>
       <c r="D13" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="4">
-        <v>3407</v>
+        <v>3451</v>
       </c>
       <c r="D14" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,7 +1468,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="4">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
@@ -1503,7 +1482,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="4">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
@@ -1517,7 +1496,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="4">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="D17" s="4">
         <v>15</v>
@@ -1531,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="4">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
@@ -1545,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="4">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
@@ -1559,7 +1538,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="4">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="D20" s="4">
         <v>15</v>
@@ -1573,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="C21" s="4">
-        <v>3456</v>
+        <v>3500</v>
       </c>
       <c r="D21" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,38 +1563,38 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C22" s="4">
-        <v>3457</v>
+        <v>3552</v>
       </c>
       <c r="D22" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" s="4">
-        <v>3500</v>
+        <v>3553</v>
       </c>
       <c r="D23" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="4">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="D24" s="4">
         <v>17</v>
@@ -1623,69 +1602,69 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
       <c r="C25" s="4">
-        <v>3553</v>
+        <v>3601</v>
       </c>
       <c r="D25" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" s="4">
-        <v>3554</v>
+        <v>3602</v>
       </c>
       <c r="D26" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" s="4">
-        <v>3601</v>
+        <v>3650</v>
       </c>
       <c r="D27" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" s="4">
-        <v>3602</v>
+        <v>3651</v>
       </c>
       <c r="D28" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="4">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="D29" s="4">
         <v>19</v>
@@ -1693,41 +1672,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
       <c r="C30" s="4">
-        <v>3651</v>
+        <v>3750</v>
       </c>
       <c r="D30" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
       <c r="C31" s="4">
-        <v>3654</v>
+        <v>3751</v>
       </c>
       <c r="D31" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
       <c r="C32" s="4">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="D32" s="4">
         <v>21</v>
@@ -1735,41 +1714,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
       <c r="C33" s="4">
-        <v>3751</v>
+        <v>3850</v>
       </c>
       <c r="D33" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
       <c r="C34" s="4">
-        <v>3752</v>
+        <v>3851</v>
       </c>
       <c r="D34" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
       <c r="C35" s="4">
-        <v>3850</v>
+        <v>3853</v>
       </c>
       <c r="D35" s="4">
         <v>23</v>
@@ -1777,13 +1756,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" s="4">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="D36" s="4">
         <v>23</v>
@@ -1791,90 +1770,48 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
       <c r="C37" s="4">
-        <v>3853</v>
+        <v>4001</v>
       </c>
       <c r="D37" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
       <c r="C38" s="4">
-        <v>3854</v>
+        <v>4101</v>
       </c>
       <c r="D38" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" s="4">
-        <v>4001</v>
+        <v>4102</v>
       </c>
       <c r="D39" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4101</v>
-      </c>
-      <c r="D40" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4102</v>
-      </c>
-      <c r="D41" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4118</v>
-      </c>
-      <c r="D42" s="4">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D42">
+  <conditionalFormatting sqref="A2:D39">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND($A2&lt;&gt;"",#REF!=4)</formula>
     </cfRule>
@@ -1892,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1ED28-EBBB-42FB-BCDE-0919E602AF8D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,13 +1890,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,13 +1918,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +1946,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,13 +1960,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,13 +1974,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,13 +1988,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,13 +2002,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,13 +2016,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,13 +2030,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +2044,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +2058,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2072,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2086,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,13 +2100,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,13 +2114,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,13 +2128,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,45 +2142,31 @@
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C2 D2:D3 B3:C3 A3:A24 B4:D24">
+  <conditionalFormatting sqref="A2:C2 D2:D3 B3:C3 A3:A23 B4:D23">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C2=1</formula>
     </cfRule>
@@ -2271,10 +2194,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE9F3EB-8A06-4CA3-98C2-27E2556CFA4C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2351,16 +2274,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,7 +2297,7 @@
         <v>29.5</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,7 +2311,7 @@
         <v>17.75</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,7 +2325,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,7 +2339,7 @@
         <v>0.6</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +2353,7 @@
         <v>0.3</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2457,10 +2380,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2407,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,13 +2419,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2521,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2532,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>30</v>

--- a/020_Entidades/Tabelas.xlsx
+++ b/020_Entidades/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/020_Entidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B98D007-D234-4960-9D79-6CCDA09FBA2B}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1609D97-B49D-4ADF-9E73-1FD883B39444}"/>
   <bookViews>
-    <workbookView xWindow="40170" yWindow="4545" windowWidth="23055" windowHeight="9990" activeTab="1" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
+    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
   <si>
     <t>CODCLASSIFICA</t>
   </si>
@@ -228,12 +228,6 @@
   </si>
   <si>
     <t>Comunicação Audiovisual e Impressos</t>
-  </si>
-  <si>
-    <t>3.4.2.04.003</t>
-  </si>
-  <si>
-    <t>Brindes e Materiais Promocionais</t>
   </si>
   <si>
     <t>3.4.2.05.001</t>
@@ -861,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D39" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:D39" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D38" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:D38" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="15"/>
@@ -1250,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8319F-13B3-4AAB-A308-4992C26F067B}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4">
         <v>3552</v>
@@ -1622,10 +1616,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="4">
-        <v>3602</v>
+        <v>3650</v>
       </c>
       <c r="D26" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,7 +1630,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="4">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="D27" s="4">
         <v>19</v>
@@ -1650,7 +1644,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="4">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="D28" s="4">
         <v>19</v>
@@ -1664,10 +1658,10 @@
         <v>58</v>
       </c>
       <c r="C29" s="4">
-        <v>3654</v>
+        <v>3750</v>
       </c>
       <c r="D29" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,7 +1672,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="4">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="D30" s="4">
         <v>21</v>
@@ -1692,7 +1686,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="4">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="D31" s="4">
         <v>21</v>
@@ -1706,10 +1700,10 @@
         <v>64</v>
       </c>
       <c r="C32" s="4">
-        <v>3752</v>
+        <v>3850</v>
       </c>
       <c r="D32" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +1714,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="4">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="D33" s="4">
         <v>23</v>
@@ -1734,7 +1728,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="4">
-        <v>3851</v>
+        <v>3853</v>
       </c>
       <c r="D34" s="4">
         <v>23</v>
@@ -1748,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="4">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="D35" s="4">
         <v>23</v>
@@ -1762,10 +1756,10 @@
         <v>72</v>
       </c>
       <c r="C36" s="4">
-        <v>3854</v>
+        <v>4001</v>
       </c>
       <c r="D36" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,10 +1770,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="4">
-        <v>4001</v>
+        <v>4101</v>
       </c>
       <c r="D37" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,28 +1784,14 @@
         <v>76</v>
       </c>
       <c r="C38" s="4">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="D38" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4102</v>
-      </c>
-      <c r="D39" s="4">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D39">
+  <conditionalFormatting sqref="A2:D38">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND($A2&lt;&gt;"",#REF!=4)</formula>
     </cfRule>
@@ -1831,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1ED28-EBBB-42FB-BCDE-0919E602AF8D}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1848,13 +1828,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,13 +1856,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +1870,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +1926,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +1940,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +1954,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +1968,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +1982,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,13 +1996,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,13 +2010,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,13 +2024,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2038,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,13 +2052,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,13 +2066,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,13 +2080,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,13 +2094,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,13 +2108,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,13 +2122,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,13 +2136,13 @@
         <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2194,10 +2174,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2274,16 +2254,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,7 +2277,7 @@
         <v>29.5</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,7 +2291,7 @@
         <v>17.75</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,7 +2305,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,7 +2319,7 @@
         <v>0.6</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,7 +2333,7 @@
         <v>0.3</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2380,10 +2360,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2419,13 +2399,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2444,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2455,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4">
         <v>30</v>

--- a/020_Entidades/Tabelas.xlsx
+++ b/020_Entidades/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/020_Entidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1609D97-B49D-4ADF-9E73-1FD883B39444}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{675AD270-BAFD-4E51-BDF9-1DA73AC4AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA601FA-84F9-4727-BEEC-A035AC98CAB7}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D6F20481-20FB-4496-B867-52108E46BD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>CODCLASSIFICA</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>Despesas com Mercadorias</t>
+  </si>
+  <si>
+    <t>ORDER</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -855,26 +871,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D38" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}" name="PlanoContas" displayName="PlanoContas" ref="A1:D38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D38" xr:uid="{34B689A6-8109-4F51-9C3F-F8D1270CF324}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{4DA7A0CE-FE4D-48E1-AE9C-83FC7CEE697E}" name="CODGERENCIAL" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{B3C287AE-293F-40D3-9297-88C9DC606D89}" name="CODDRE" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{2A5B0E67-832E-4FA2-9704-6C6879C2E8AF}" name="CODCLASSIFICA" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{285C288F-7006-40DE-A398-D7401EDB7F87}" name="CONTA" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{4DA7A0CE-FE4D-48E1-AE9C-83FC7CEE697E}" name="CODGERENCIAL" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{B3C287AE-293F-40D3-9297-88C9DC606D89}" name="CODDRE" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:D23" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:D23" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{75D51829-A360-4D34-8ED9-0BF5D8712134}" name="CODDRE" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9DD87E37-9532-4341-BDDB-32E8D95048A3}" name="SUBCONTADRE" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E7ADFED8-1FA7-4CA0-B228-A102DA4B27E4}" name="SUBTOTAL" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C15969C2-45ED-41FB-8B35-8CD315DEB10D}" name="CONTADRE" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}" name="DRE" displayName="DRE" ref="A1:E23" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:E23" xr:uid="{166D2AB4-B491-4F7F-92AD-5B3B7F101642}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{75D51829-A360-4D34-8ED9-0BF5D8712134}" name="CODDRE" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9DD87E37-9532-4341-BDDB-32E8D95048A3}" name="SUBCONTADRE" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E7ADFED8-1FA7-4CA0-B228-A102DA4B27E4}" name="SUBTOTAL" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{53B63D7B-6F8D-491D-AFC9-563F37B2E517}" name="ORDER" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{C15969C2-45ED-41FB-8B35-8CD315DEB10D}" name="CONTADRE" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,7 +933,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}" name="PlanoPagamento" displayName="PlanoPagamento" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}" name="PlanoPagamento" displayName="PlanoPagamento" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:C4" xr:uid="{B34F5A4E-745C-4FDD-9139-CF908F81D858}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2803E7C8-A106-4007-B75E-C6F4F31A5A9B}" name="CODPLPAG"/>
@@ -1246,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A8319F-13B3-4AAB-A308-4992C26F067B}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,10 +1809,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D38">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($A2&lt;&gt;"",#REF!=4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND($A2&lt;&gt;"",#REF!&lt;5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1809,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1ED28-EBBB-42FB-BCDE-0919E602AF8D}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,10 +1837,11 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1834,10 +1852,13 @@
         <v>78</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1847,11 +1868,14 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>4</v>
       </c>
@@ -1861,11 +1885,14 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>5</v>
       </c>
@@ -1875,11 +1902,14 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1889,11 +1919,14 @@
       <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -1903,11 +1936,14 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -1917,11 +1953,14 @@
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -1931,11 +1970,14 @@
       <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -1945,11 +1987,14 @@
       <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -1959,11 +2004,14 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1973,11 +2021,14 @@
       <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>14</v>
       </c>
@@ -1987,11 +2038,14 @@
       <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>15</v>
       </c>
@@ -2001,11 +2055,14 @@
       <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>16</v>
       </c>
@@ -2015,11 +2072,14 @@
       <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>17</v>
       </c>
@@ -2029,11 +2089,14 @@
       <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>18</v>
       </c>
@@ -2043,11 +2106,14 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2057,11 +2123,14 @@
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>21</v>
       </c>
@@ -2071,11 +2140,14 @@
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2085,11 +2157,14 @@
       <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>26</v>
       </c>
@@ -2099,11 +2174,14 @@
       <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2113,11 +2191,14 @@
       <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>31</v>
       </c>
@@ -2127,11 +2208,14 @@
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41</v>
       </c>
@@ -2141,13 +2225,16 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C2 D2:D3 B3:C3 A3:A23 B4:D23">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A2:D2 E2:E3 B3:D3 A3:A23 B4:E23">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C2=1</formula>
     </cfRule>
   </conditionalFormatting>
